--- a/data/reward.xlsx
+++ b/data/reward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/BAAC_DATA/@Working_Y63/CodeCampUpSkillBatch1/Project/Group/Final/final-americano-api/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA5030C-382A-8E43-8D5E-831FA03F1CDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FAE879-69DD-C140-9294-7E6686E5295B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_62" localSheetId="0">RewardData!#REF!</definedName>
     <definedName name="REPORT6_2" localSheetId="0">RewardData!#REF!</definedName>
     <definedName name="REPORT6_3" localSheetId="0">RewardData!$A$2:$D$11</definedName>
+    <definedName name="REPORT6_4" localSheetId="0">RewardData!$A$17:$D$26</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -71,11 +72,26 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="4" xr16:uid="{EA456AFE-486C-BB4C-8EAE-272D578DF594}" name="REPORT6_211" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="874" sourceFile="C:\ทีมจัดการข้อมูล\Request\DT_DEPSR0438\REPORT6_2.txt" comma="1">
+      <textFields count="9">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField/>
+        <textField type="text"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
   <si>
     <t>1</t>
   </si>
@@ -98,45 +114,6 @@
     <t>2020-06-16</t>
   </si>
   <si>
-    <t>2020-06-17</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>2020-06-19</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>2020-06-21</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
-  </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
-  <si>
-    <t>2020-06-25</t>
-  </si>
-  <si>
-    <t>2020-06-26</t>
-  </si>
-  <si>
-    <t>2020-06-27</t>
-  </si>
-  <si>
-    <t>2020-06-28</t>
-  </si>
-  <si>
-    <t>2020-06-29</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -161,9 +138,6 @@
     <t>50</t>
   </si>
   <si>
-    <t>111111</t>
-  </si>
-  <si>
     <t>222221</t>
   </si>
   <si>
@@ -179,9 +153,6 @@
     <t>333333</t>
   </si>
   <si>
-    <t>444441</t>
-  </si>
-  <si>
     <t>444442</t>
   </si>
   <si>
@@ -194,21 +165,6 @@
     <t>555551</t>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH SarabunPSK"/>
-        <family val="2"/>
-      </rPr>
-      <t>55552</t>
-    </r>
-  </si>
-  <si>
     <t>555553</t>
   </si>
   <si>
@@ -216,6 +172,18 @@
   </si>
   <si>
     <t>555555</t>
+  </si>
+  <si>
+    <t>80000023</t>
+  </si>
+  <si>
+    <t>80000198</t>
+  </si>
+  <si>
+    <t>80000199</t>
+  </si>
+  <si>
+    <t>2020-07-16</t>
   </si>
 </sst>
 </file>
@@ -321,6 +289,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="REPORT6_4" connectionId="4" xr16:uid="{E63474EB-2911-B241-BA9C-6A9D6C69EDE7}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="REPORT6_3" connectionId="3" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -645,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -683,222 +655,432 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E11">

--- a/data/reward.xlsx
+++ b/data/reward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/BAAC_DATA/@Working_Y63/CodeCampUpSkillBatch1/Project/Group/Final/final-americano-api/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/BAAC_DATA/@Working_Y63/CodeCampUpSkillBatch1/Project/Group/final-americano-api/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FAE879-69DD-C140-9294-7E6686E5295B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ED7DBA-9720-6447-8B52-EE9F34FD588E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="18">
   <si>
     <t>1</t>
   </si>
@@ -120,9 +120,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>1000000</t>
   </si>
   <si>
@@ -138,59 +135,23 @@
     <t>50</t>
   </si>
   <si>
-    <t>222221</t>
-  </si>
-  <si>
-    <t>222222</t>
-  </si>
-  <si>
-    <t>333331</t>
-  </si>
-  <si>
-    <t>333332</t>
-  </si>
-  <si>
-    <t>333333</t>
-  </si>
-  <si>
-    <t>444442</t>
-  </si>
-  <si>
-    <t>444443</t>
-  </si>
-  <si>
-    <t>444444</t>
-  </si>
-  <si>
-    <t>555551</t>
-  </si>
-  <si>
-    <t>555553</t>
-  </si>
-  <si>
-    <t>555554</t>
-  </si>
-  <si>
-    <t>555555</t>
-  </si>
-  <si>
-    <t>80000023</t>
-  </si>
-  <si>
-    <t>80000198</t>
-  </si>
-  <si>
-    <t>80000199</t>
-  </si>
-  <si>
-    <t>2020-07-16</t>
+    <t>9182368</t>
+  </si>
+  <si>
+    <t>0072809</t>
+  </si>
+  <si>
+    <t>0466749</t>
+  </si>
+  <si>
+    <t>3721866</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +179,12 @@
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,22 +222,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,37 +583,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="15.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="22" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="22" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -655,14 +624,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -670,14 +639,15 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4948894</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,29 +655,29 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5040803</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="3">
+        <v>6358780</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -715,14 +685,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -730,356 +703,468 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="3">
+        <v>3159724</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4235750</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6865071</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D12" s="3">
+        <v>8193387</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D13" s="3">
+        <v>8534715</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D14" s="3">
+        <v>9146125</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="D15" s="3">
+        <v>3588174</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>256371</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="3">
+        <v>1505435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="3">
+        <v>3264401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6252588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D20" s="3">
+        <v>744431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D21" s="3">
+        <v>1925171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3508593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D23" s="3">
+        <v>8053252</v>
+      </c>
+      <c r="H23" s="3">
+        <v>256371</v>
+      </c>
+      <c r="I23" s="3">
+        <v>744431</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1006652</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1253966</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1434930</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D24" s="3">
+        <v>1006652</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1505435</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1925171</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2431670</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2608734</v>
+      </c>
+      <c r="L24" s="3">
+        <v>2919054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D25" s="3">
+        <v>2431670</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3264401</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3508593</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3724782</v>
+      </c>
+      <c r="K25" s="3">
+        <v>4204969</v>
+      </c>
+      <c r="L25" s="3">
+        <v>5312831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3724782</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6252588</v>
+      </c>
+      <c r="I26" s="3">
+        <v>8053252</v>
+      </c>
+      <c r="J26" s="3">
+        <v>9259741</v>
+      </c>
+      <c r="K26" s="3">
+        <v>9429316</v>
+      </c>
+      <c r="L26" s="3">
+        <v>9717594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D27" s="3">
+        <v>9259741</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D28" s="3">
+        <v>1253966</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D29" s="3">
+        <v>2608734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="3">
+        <v>4204969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="D31" s="3">
+        <v>9429316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1434930</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="6">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2919054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="6">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5312831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="6">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3">
+        <v>9717594</v>
       </c>
     </row>
   </sheetData>

--- a/data/reward.xlsx
+++ b/data/reward.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/BAAC_DATA/@Working_Y63/Training/CodeCampUpSkillBatch1/Project/Group/final-americano-api/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA7EFC0-0C8C-AB40-B0EE-E64D7DDA8792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="24240" windowHeight="13740" tabRatio="325"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RewardData" sheetId="3" r:id="rId1"/>
@@ -14,8 +20,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="62" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="62" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="874" sourceFile="C:\ทีมจัดการข้อมูล\Request\DT_DEPSR0438\62.txt" comma="1">
       <textFields count="9">
         <textField type="text"/>
@@ -30,7 +36,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="REPORT6_2" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="REPORT6_2" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="874" sourceFile="C:\ทีมจัดการข้อมูล\Request\DT_DEPSR0438\REPORT6_2.txt" comma="1">
       <textFields count="9">
         <textField/>
@@ -49,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="40">
   <si>
     <t>1</t>
   </si>
@@ -67,9 +73,6 @@
   </si>
   <si>
     <t>RewardNo</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
   </si>
   <si>
     <t>2</t>
@@ -135,9 +138,6 @@
     <t>5000</t>
   </si>
   <si>
-    <t>2020-07-16</t>
-  </si>
-  <si>
     <t>0234812</t>
   </si>
   <si>
@@ -180,12 +180,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -194,21 +194,21 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -291,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,9 +388,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,6 +440,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -595,25 +632,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="M254" sqref="M254"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="13" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -627,15 +664,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>44059</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4">
         <v>9182368</v>
@@ -645,59 +682,59 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
+      <c r="A3" s="8">
+        <v>44059</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6">
         <v>4948894</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
+      <c r="A4" s="8">
+        <v>44059</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6">
         <v>5040803</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>44059</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6">
         <v>6358780</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>28</v>
+    <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>44059</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -705,18 +742,18 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
+    <row r="7" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>44059</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -726,18 +763,18 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
+    <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>44059</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -745,15 +782,15 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>44059</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6">
         <v>6865071</v>
@@ -764,15 +801,15 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>44059</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6">
         <v>3159724</v>
@@ -784,294 +821,294 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
+      <c r="A11" s="8">
+        <v>44059</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6">
         <v>8193387</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
+      <c r="A12" s="8">
+        <v>44059</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6">
         <v>3588174</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
+      <c r="A13" s="8">
+        <v>44059</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6">
         <v>8534715</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
+      <c r="A14" s="8">
+        <v>44059</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6">
         <v>3721866</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
+      <c r="A15" s="8">
+        <v>44059</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="6">
         <v>9146125</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>44059</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
+      <c r="A17" s="8">
+        <v>44059</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="6">
         <v>1505435</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>28</v>
+      <c r="A18" s="8">
+        <v>44059</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6">
         <v>3264401</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
+      <c r="A19" s="8">
+        <v>44059</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="6">
         <v>6252588</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>44059</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
+      <c r="A21" s="8">
+        <v>44059</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="6">
         <v>1925171</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
+      <c r="A22" s="8">
+        <v>44059</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="6">
         <v>3508593</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
+      <c r="A23" s="8">
+        <v>44059</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="6">
         <v>8053252</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
+      <c r="A24" s="8">
+        <v>44059</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" s="6">
         <v>1006652</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>28</v>
+      <c r="A25" s="8">
+        <v>44059</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="6">
         <v>2431670</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>28</v>
+      <c r="A26" s="8">
+        <v>44059</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="6">
         <v>3724782</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>28</v>
+      <c r="A27" s="8">
+        <v>44059</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="6">
         <v>9259741</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
+      <c r="A28" s="8">
+        <v>44059</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="6">
         <v>1253966</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>28</v>
+      <c r="A29" s="8">
+        <v>44059</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="6">
         <v>2608734</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>28</v>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>44059</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="6">
         <v>4204969</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>28</v>
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>44059</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31" s="6">
         <v>9429316</v>
@@ -1082,15 +1119,15 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>28</v>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>44059</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="6">
         <v>1434930</v>
@@ -1101,15 +1138,15 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>28</v>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>44059</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="6">
         <v>2919054</v>
@@ -1120,15 +1157,15 @@
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>28</v>
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>44059</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="6">
         <v>5312831</v>
@@ -1139,15 +1176,15 @@
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
     </row>
-    <row r="35" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>28</v>
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>44059</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" s="6">
         <v>9717594</v>
@@ -1158,18 +1195,18 @@
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>28</v>
+    <row r="36" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>44059</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -1177,18 +1214,18 @@
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>28</v>
+    <row r="37" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>44059</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -1196,15 +1233,15 @@
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>28</v>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>44059</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="6">
         <v>1277996</v>
@@ -1215,15 +1252,15 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>28</v>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>44059</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" s="6">
         <v>1934863</v>
@@ -1234,15 +1271,15 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>28</v>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>44059</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D40" s="6">
         <v>2100788</v>
@@ -1253,15 +1290,15 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>28</v>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>44059</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="6">
         <v>2492716</v>
@@ -1272,15 +1309,15 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>28</v>
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>44059</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="6">
         <v>3253370</v>
@@ -1291,15 +1328,15 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>28</v>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>44059</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="6">
         <v>3648425</v>
@@ -1310,15 +1347,15 @@
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>28</v>
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>44059</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="6">
         <v>4131871</v>
@@ -1329,15 +1366,15 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>28</v>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>44059</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" s="6">
         <v>4553919</v>
@@ -1348,15 +1385,15 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>28</v>
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>44059</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="6">
         <v>5041162</v>
@@ -1367,15 +1404,15 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>28</v>
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <v>44059</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" s="6">
         <v>5680650</v>
@@ -1386,15 +1423,15 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>28</v>
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>44059</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" s="6">
         <v>6273225</v>
@@ -1405,15 +1442,15 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>28</v>
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <v>44059</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="6">
         <v>6660607</v>
@@ -1424,15 +1461,15 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>28</v>
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>44059</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" s="6">
         <v>7512558</v>
@@ -1444,1288 +1481,1288 @@
       <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>28</v>
+      <c r="A51" s="8">
+        <v>44059</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="6">
         <v>7881166</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>28</v>
+      <c r="A52" s="8">
+        <v>44059</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" s="6">
         <v>8399998</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>28</v>
+      <c r="A53" s="8">
+        <v>44059</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" s="6">
         <v>8835111</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>28</v>
+      <c r="A54" s="8">
+        <v>44059</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" s="6">
         <v>9438689</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>28</v>
+      <c r="A55" s="8">
+        <v>44059</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" s="6">
         <v>9789541</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>28</v>
+    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>44059</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>44059</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>28</v>
+      <c r="A58" s="8">
+        <v>44059</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" s="6">
         <v>1311701</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>28</v>
+      <c r="A59" s="8">
+        <v>44059</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="6">
         <v>1943158</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>28</v>
+      <c r="A60" s="8">
+        <v>44059</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" s="6">
         <v>2118611</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>28</v>
+      <c r="A61" s="8">
+        <v>44059</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" s="6">
         <v>2804297</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>28</v>
+      <c r="A62" s="8">
+        <v>44059</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" s="6">
         <v>3299374</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>28</v>
+      <c r="A63" s="8">
+        <v>44059</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" s="6">
         <v>3838841</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>28</v>
+      <c r="A64" s="8">
+        <v>44059</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="6">
         <v>4158495</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>28</v>
+      <c r="A65" s="8">
+        <v>44059</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" s="6">
         <v>4649117</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>28</v>
+      <c r="A66" s="8">
+        <v>44059</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" s="6">
         <v>5212301</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>28</v>
+      <c r="A67" s="8">
+        <v>44059</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" s="6">
         <v>5971770</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>28</v>
+      <c r="A68" s="8">
+        <v>44059</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D68" s="6">
         <v>6390291</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>28</v>
+      <c r="A69" s="8">
+        <v>44059</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" s="6">
         <v>6681959</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>28</v>
+      <c r="A70" s="8">
+        <v>44059</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="6">
         <v>7611648</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>28</v>
+      <c r="A71" s="8">
+        <v>44059</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71" s="6">
         <v>7890717</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>28</v>
+      <c r="A72" s="8">
+        <v>44059</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D72" s="6">
         <v>8469281</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>28</v>
+      <c r="A73" s="8">
+        <v>44059</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="6">
         <v>8909215</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>28</v>
+      <c r="A74" s="8">
+        <v>44059</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D74" s="6">
         <v>9526018</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>28</v>
+      <c r="A75" s="8">
+        <v>44059</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D75" s="6">
         <v>9823568</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>28</v>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>44059</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D76" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>44059</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>28</v>
+      <c r="A78" s="8">
+        <v>44059</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78" s="6">
         <v>1416914</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>28</v>
+      <c r="A79" s="8">
+        <v>44059</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D79" s="6">
         <v>1984216</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>28</v>
+      <c r="A80" s="8">
+        <v>44059</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D80" s="6">
         <v>2282046</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>28</v>
+      <c r="A81" s="8">
+        <v>44059</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D81" s="6">
         <v>2809160</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>28</v>
+      <c r="A82" s="8">
+        <v>44059</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D82" s="6">
         <v>3326456</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>28</v>
+      <c r="A83" s="8">
+        <v>44059</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D83" s="6">
         <v>3874729</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>28</v>
+      <c r="A84" s="8">
+        <v>44059</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D84" s="6">
         <v>4208447</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>28</v>
+      <c r="A85" s="8">
+        <v>44059</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D85" s="6">
         <v>4652735</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>28</v>
+      <c r="A86" s="8">
+        <v>44059</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D86" s="6">
         <v>5249069</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>28</v>
+      <c r="A87" s="8">
+        <v>44059</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D87" s="6">
         <v>6012151</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>28</v>
+      <c r="A88" s="8">
+        <v>44059</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D88" s="6">
         <v>6396096</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>28</v>
+      <c r="A89" s="8">
+        <v>44059</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" s="6">
         <v>6785866</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>28</v>
+      <c r="A90" s="8">
+        <v>44059</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D90" s="6">
         <v>7711991</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>28</v>
+      <c r="A91" s="8">
+        <v>44059</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D91" s="6">
         <v>7956522</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>28</v>
+      <c r="A92" s="8">
+        <v>44059</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" s="6">
         <v>8475707</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>28</v>
+      <c r="A93" s="8">
+        <v>44059</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D93" s="6">
         <v>9033264</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>28</v>
+      <c r="A94" s="8">
+        <v>44059</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D94" s="6">
         <v>9554064</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>28</v>
+      <c r="A95" s="8">
+        <v>44059</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D95" s="6">
         <v>9847904</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>28</v>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="8">
+        <v>44059</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>28</v>
+      <c r="A97" s="8">
+        <v>44059</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D97" s="6">
         <v>1111930</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>28</v>
+      <c r="A98" s="8">
+        <v>44059</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D98" s="6">
         <v>1496283</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>28</v>
+      <c r="A99" s="8">
+        <v>44059</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" s="6">
         <v>2032661</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>28</v>
+      <c r="A100" s="8">
+        <v>44059</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D100" s="6">
         <v>2383449</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>28</v>
+      <c r="A101" s="8">
+        <v>44059</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D101" s="6">
         <v>2899617</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>28</v>
+      <c r="A102" s="8">
+        <v>44059</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D102" s="6">
         <v>3372276</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>28</v>
+      <c r="A103" s="8">
+        <v>44059</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D103" s="6">
         <v>3981048</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>28</v>
+      <c r="A104" s="8">
+        <v>44059</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D104" s="6">
         <v>4269089</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>28</v>
+      <c r="A105" s="8">
+        <v>44059</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D105" s="6">
         <v>4681634</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>28</v>
+      <c r="A106" s="8">
+        <v>44059</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D106" s="6">
         <v>5274548</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>28</v>
+      <c r="A107" s="8">
+        <v>44059</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D107" s="6">
         <v>6211383</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>28</v>
+      <c r="A108" s="8">
+        <v>44059</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D108" s="6">
         <v>6403016</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>28</v>
+      <c r="A109" s="8">
+        <v>44059</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D109" s="6">
         <v>7248854</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>28</v>
+      <c r="A110" s="8">
+        <v>44059</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D110" s="6">
         <v>7742595</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>28</v>
+      <c r="A111" s="8">
+        <v>44059</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D111" s="6">
         <v>8258390</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>28</v>
+      <c r="A112" s="8">
+        <v>44059</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D112" s="6">
         <v>8476346</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>28</v>
+      <c r="A113" s="8">
+        <v>44059</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D113" s="6">
         <v>9133392</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>28</v>
+      <c r="A114" s="8">
+        <v>44059</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D114" s="6">
         <v>9571686</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>28</v>
+      <c r="A115" s="8">
+        <v>44059</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D115" s="6">
         <v>9869485</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>28</v>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="8">
+        <v>44059</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>28</v>
+      <c r="A117" s="8">
+        <v>44059</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D117" s="6">
         <v>1180422</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>28</v>
+      <c r="A118" s="8">
+        <v>44059</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D118" s="6">
         <v>1567859</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>28</v>
+      <c r="A119" s="8">
+        <v>44059</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D119" s="6">
         <v>2090807</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>28</v>
+      <c r="A120" s="8">
+        <v>44059</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D120" s="6">
         <v>2395526</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>28</v>
+      <c r="A121" s="8">
+        <v>44059</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D121" s="6">
         <v>2970903</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>28</v>
+      <c r="A122" s="8">
+        <v>44059</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D122" s="6">
         <v>3380298</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>28</v>
+      <c r="A123" s="8">
+        <v>44059</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D123" s="6">
         <v>4041117</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>28</v>
+      <c r="A124" s="8">
+        <v>44059</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D124" s="6">
         <v>4298392</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>28</v>
+      <c r="A125" s="8">
+        <v>44059</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D125" s="6">
         <v>4962596</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>28</v>
+      <c r="A126" s="8">
+        <v>44059</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D126" s="6">
         <v>5353720</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>28</v>
+      <c r="A127" s="8">
+        <v>44059</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D127" s="6">
         <v>6259907</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>28</v>
+      <c r="A128" s="8">
+        <v>44059</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D128" s="6">
         <v>6561545</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>28</v>
+      <c r="A129" s="8">
+        <v>44059</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D129" s="6">
         <v>7299581</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>28</v>
+      <c r="A130" s="8">
+        <v>44059</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D130" s="6">
         <v>7754380</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>28</v>
+      <c r="A131" s="8">
+        <v>44059</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D131" s="6">
         <v>8319216</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>28</v>
+      <c r="A132" s="8">
+        <v>44059</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D132" s="6">
         <v>8498707</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>28</v>
+      <c r="A133" s="8">
+        <v>44059</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D133" s="6">
         <v>9329200</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>28</v>
+      <c r="A134" s="8">
+        <v>44059</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D134" s="6">
         <v>9753890</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>28</v>
+      <c r="A135" s="8">
+        <v>44059</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D135" s="6">
         <v>9949669</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>6</v>
+      <c r="A136" s="8">
+        <v>44028</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D136" s="4">
         <v>7440752</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="8">
+        <v>44028</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C137" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D137" s="4">
         <v>1311380</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="8">
+        <v>44028</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C138" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D138" s="4">
         <v>4706126</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="8">
+        <v>44028</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C139" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D139" s="4">
         <v>8460534</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>6</v>
+      <c r="A140" s="8">
+        <v>44028</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D140" s="6">
         <v>1598632</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>6</v>
+    <row r="141" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="8">
+        <v>44028</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D141" s="6">
         <v>7911520</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>6</v>
+    <row r="142" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <v>44028</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D142" s="6">
         <v>4782646</v>
@@ -2736,15 +2773,15 @@
       <c r="K142" s="7"/>
       <c r="L142" s="7"/>
     </row>
-    <row r="143" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>6</v>
+    <row r="143" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="8">
+        <v>44028</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D143" s="6">
         <v>8108494</v>
@@ -2756,112 +2793,112 @@
       <c r="L143" s="7"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>6</v>
+      <c r="A144" s="8">
+        <v>44028</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D144" s="6">
         <v>5281416</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
-        <v>6</v>
+      <c r="A145" s="8">
+        <v>44028</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D145" s="6">
         <v>8409963</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>6</v>
+      <c r="A146" s="8">
+        <v>44028</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D146" s="6">
         <v>5621932</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
-        <v>6</v>
+      <c r="A147" s="8">
+        <v>44028</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D147" s="6">
         <v>9265544</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>6</v>
+      <c r="A148" s="8">
+        <v>44028</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D148" s="6">
         <v>6128665</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
-        <v>6</v>
+      <c r="A149" s="8">
+        <v>44028</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D149" s="6">
         <v>9282729</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>6</v>
+    <row r="150" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="8">
+        <v>44028</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="8">
+        <v>44028</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D151" s="6">
         <v>1346932</v>
@@ -2872,15 +2909,15 @@
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
-    <row r="152" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>6</v>
+    <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="8">
+        <v>44028</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D152" s="6">
         <v>2351212</v>
@@ -2891,15 +2928,15 @@
       <c r="J152" s="7"/>
       <c r="K152" s="7"/>
     </row>
-    <row r="153" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>6</v>
+    <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="8">
+        <v>44028</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D153" s="6">
         <v>5116301</v>
@@ -2910,18 +2947,18 @@
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
-    <row r="154" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>6</v>
+    <row r="154" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="8">
+        <v>44028</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
@@ -2930,126 +2967,126 @@
       <c r="K154" s="7"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
-        <v>6</v>
+      <c r="A155" s="8">
+        <v>44028</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D155" s="6">
         <v>1527259</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
-        <v>6</v>
+      <c r="A156" s="8">
+        <v>44028</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D156" s="6">
         <v>2518368</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
-        <v>6</v>
+      <c r="A157" s="8">
+        <v>44028</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D157" s="6">
         <v>6587340</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>6</v>
+    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="8">
+        <v>44028</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>6</v>
+      <c r="A159" s="8">
+        <v>44028</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D159" s="6">
         <v>1863214</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>6</v>
+      <c r="A160" s="8">
+        <v>44028</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D160" s="6">
         <v>2851369</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
-        <v>6</v>
+      <c r="A161" s="8">
+        <v>44028</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D161" s="6">
         <v>6890589</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>6</v>
+    <row r="162" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="8">
+        <v>44028</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D162" s="6">
         <v>1027295</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>6</v>
+    <row r="163" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="8">
+        <v>44028</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D163" s="6">
         <v>2103956</v>
@@ -3060,15 +3097,15 @@
       <c r="K163" s="7"/>
       <c r="L163" s="7"/>
     </row>
-    <row r="164" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>6</v>
+    <row r="164" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="8">
+        <v>44028</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D164" s="6">
         <v>3673640</v>
@@ -3079,15 +3116,15 @@
       <c r="K164" s="7"/>
       <c r="L164" s="7"/>
     </row>
-    <row r="165" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>6</v>
+    <row r="165" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="8">
+        <v>44028</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D165" s="6">
         <v>7183724</v>
@@ -3098,15 +3135,15 @@
       <c r="K165" s="7"/>
       <c r="L165" s="7"/>
     </row>
-    <row r="166" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>6</v>
+    <row r="166" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="8">
+        <v>44028</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D166" s="6">
         <v>1219121</v>
@@ -3117,15 +3154,15 @@
       <c r="K166" s="7"/>
       <c r="L166" s="7"/>
     </row>
-    <row r="167" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>6</v>
+    <row r="167" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="8">
+        <v>44028</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D167" s="6">
         <v>2177448</v>
@@ -3136,15 +3173,15 @@
       <c r="K167" s="7"/>
       <c r="L167" s="7"/>
     </row>
-    <row r="168" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>6</v>
+    <row r="168" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="8">
+        <v>44028</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D168" s="6">
         <v>4005607</v>
@@ -3155,15 +3192,15 @@
       <c r="K168" s="7"/>
       <c r="L168" s="7"/>
     </row>
-    <row r="169" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>6</v>
+    <row r="169" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="8">
+        <v>44028</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D169" s="6">
         <v>8258494</v>
@@ -3174,18 +3211,18 @@
       <c r="K169" s="7"/>
       <c r="L169" s="7"/>
     </row>
-    <row r="170" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>6</v>
+    <row r="170" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="8">
+        <v>44028</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
@@ -3193,18 +3230,18 @@
       <c r="K170" s="7"/>
       <c r="L170" s="7"/>
     </row>
-    <row r="171" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>6</v>
+    <row r="171" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="8">
+        <v>44028</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
@@ -3212,15 +3249,15 @@
       <c r="K171" s="7"/>
       <c r="L171" s="7"/>
     </row>
-    <row r="172" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>6</v>
+    <row r="172" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="8">
+        <v>44028</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D172" s="6">
         <v>1054286</v>
@@ -3231,15 +3268,15 @@
       <c r="K172" s="7"/>
       <c r="L172" s="7"/>
     </row>
-    <row r="173" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>6</v>
+    <row r="173" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="8">
+        <v>44028</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D173" s="6">
         <v>1329557</v>
@@ -3250,15 +3287,15 @@
       <c r="K173" s="7"/>
       <c r="L173" s="7"/>
     </row>
-    <row r="174" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>6</v>
+    <row r="174" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="8">
+        <v>44028</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D174" s="6">
         <v>2120160</v>
@@ -3269,15 +3306,15 @@
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
     </row>
-    <row r="175" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>6</v>
+    <row r="175" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="8">
+        <v>44028</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D175" s="6">
         <v>3459677</v>
@@ -3288,15 +3325,15 @@
       <c r="K175" s="7"/>
       <c r="L175" s="7"/>
     </row>
-    <row r="176" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>6</v>
+    <row r="176" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="8">
+        <v>44028</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D176" s="6">
         <v>4105894</v>
@@ -3307,15 +3344,15 @@
       <c r="K176" s="7"/>
       <c r="L176" s="7"/>
     </row>
-    <row r="177" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>6</v>
+    <row r="177" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="8">
+        <v>44028</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D177" s="6">
         <v>4385130</v>
@@ -3326,15 +3363,15 @@
       <c r="K177" s="7"/>
       <c r="L177" s="7"/>
     </row>
-    <row r="178" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>6</v>
+    <row r="178" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="8">
+        <v>44028</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D178" s="6">
         <v>4587391</v>
@@ -3345,15 +3382,15 @@
       <c r="K178" s="7"/>
       <c r="L178" s="7"/>
     </row>
-    <row r="179" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>6</v>
+    <row r="179" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="8">
+        <v>44028</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D179" s="6">
         <v>5159705</v>
@@ -3364,15 +3401,15 @@
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
     </row>
-    <row r="180" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>6</v>
+    <row r="180" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="8">
+        <v>44028</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D180" s="6">
         <v>5918807</v>
@@ -3383,15 +3420,15 @@
       <c r="K180" s="7"/>
       <c r="L180" s="7"/>
     </row>
-    <row r="181" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>6</v>
+    <row r="181" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="8">
+        <v>44028</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D181" s="6">
         <v>6751054</v>
@@ -3402,15 +3439,15 @@
       <c r="K181" s="7"/>
       <c r="L181" s="7"/>
     </row>
-    <row r="182" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>6</v>
+    <row r="182" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="8">
+        <v>44028</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D182" s="6">
         <v>7171423</v>
@@ -3422,1218 +3459,1218 @@
       <c r="L182" s="7"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
-        <v>6</v>
+      <c r="A183" s="8">
+        <v>44028</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D183" s="6">
         <v>7725566</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
-        <v>6</v>
+      <c r="A184" s="8">
+        <v>44028</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D184" s="6">
         <v>7913342</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
-        <v>6</v>
+      <c r="A185" s="8">
+        <v>44028</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D185" s="6">
         <v>8038531</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
-        <v>6</v>
+      <c r="A186" s="8">
+        <v>44028</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D186" s="6">
         <v>8590210</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
-        <v>6</v>
+      <c r="A187" s="8">
+        <v>44028</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D187" s="6">
         <v>8811165</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A188" s="3" t="s">
-        <v>6</v>
+      <c r="A188" s="8">
+        <v>44028</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D188" s="6">
         <v>9464164</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
-        <v>6</v>
+      <c r="A189" s="8">
+        <v>44028</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D189" s="6">
         <v>9873716</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>6</v>
+    <row r="190" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" s="8">
+        <v>44028</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" s="8">
+        <v>44028</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A192" s="3" t="s">
-        <v>6</v>
+      <c r="A192" s="8">
+        <v>44028</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D192" s="6">
         <v>1058146</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
-        <v>6</v>
+      <c r="A193" s="8">
+        <v>44028</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D193" s="6">
         <v>1649457</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
-        <v>6</v>
+      <c r="A194" s="8">
+        <v>44028</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D194" s="6">
         <v>2366074</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="3" t="s">
-        <v>6</v>
+      <c r="A195" s="8">
+        <v>44028</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D195" s="6">
         <v>3645671</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
-        <v>6</v>
+      <c r="A196" s="8">
+        <v>44028</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D196" s="6">
         <v>4117151</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="3" t="s">
-        <v>6</v>
+      <c r="A197" s="8">
+        <v>44028</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D197" s="6">
         <v>4400993</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="3" t="s">
-        <v>6</v>
+      <c r="A198" s="8">
+        <v>44028</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D198" s="6">
         <v>4609388</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="3" t="s">
-        <v>6</v>
+      <c r="A199" s="8">
+        <v>44028</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D199" s="6">
         <v>5273878</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="3" t="s">
-        <v>6</v>
+      <c r="A200" s="8">
+        <v>44028</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D200" s="6">
         <v>5982903</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
-        <v>6</v>
+      <c r="A201" s="8">
+        <v>44028</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D201" s="6">
         <v>6917695</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
-        <v>6</v>
+      <c r="A202" s="8">
+        <v>44028</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D202" s="6">
         <v>7386387</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
-        <v>6</v>
+      <c r="A203" s="8">
+        <v>44028</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D203" s="6">
         <v>7804022</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
-        <v>6</v>
+      <c r="A204" s="8">
+        <v>44028</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D204" s="6">
         <v>7981257</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
-        <v>6</v>
+      <c r="A205" s="8">
+        <v>44028</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D205" s="6">
         <v>8053961</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="3" t="s">
-        <v>6</v>
+      <c r="A206" s="8">
+        <v>44028</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D206" s="6">
         <v>8605694</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
-        <v>6</v>
+      <c r="A207" s="8">
+        <v>44028</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D207" s="6">
         <v>8862813</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="3" t="s">
-        <v>6</v>
+      <c r="A208" s="8">
+        <v>44028</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D208" s="6">
         <v>9488793</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
-        <v>6</v>
+      <c r="A209" s="8">
+        <v>44028</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D209" s="6">
         <v>9885839</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="3" t="s">
-        <v>6</v>
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="8">
+        <v>44028</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A211" s="8">
+        <v>44028</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="3" t="s">
-        <v>6</v>
+      <c r="A212" s="8">
+        <v>44028</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D212" s="6">
         <v>1068551</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="3" t="s">
-        <v>6</v>
+      <c r="A213" s="8">
+        <v>44028</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D213" s="6">
         <v>1711400</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
-        <v>6</v>
+      <c r="A214" s="8">
+        <v>44028</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D214" s="6">
         <v>2878544</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
-        <v>6</v>
+      <c r="A215" s="8">
+        <v>44028</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D215" s="6">
         <v>3690197</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
-        <v>6</v>
+      <c r="A216" s="8">
+        <v>44028</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D216" s="6">
         <v>4131372</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="s">
-        <v>6</v>
+      <c r="A217" s="8">
+        <v>44028</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D217" s="6">
         <v>4402547</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
-        <v>6</v>
+      <c r="A218" s="8">
+        <v>44028</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D218" s="6">
         <v>4808805</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
-        <v>6</v>
+      <c r="A219" s="8">
+        <v>44028</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D219" s="6">
         <v>5306817</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="3" t="s">
-        <v>6</v>
+      <c r="A220" s="8">
+        <v>44028</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D220" s="6">
         <v>6172004</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
-        <v>6</v>
+      <c r="A221" s="8">
+        <v>44028</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D221" s="6">
         <v>6967975</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="3" t="s">
-        <v>6</v>
+      <c r="A222" s="8">
+        <v>44028</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D222" s="6">
         <v>7513717</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
-        <v>6</v>
+      <c r="A223" s="8">
+        <v>44028</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D223" s="6">
         <v>7838339</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="3" t="s">
-        <v>6</v>
+      <c r="A224" s="8">
+        <v>44028</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D224" s="6">
         <v>7986497</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="3" t="s">
-        <v>6</v>
+      <c r="A225" s="8">
+        <v>44028</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D225" s="6">
         <v>8228955</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
-        <v>6</v>
+      <c r="A226" s="8">
+        <v>44028</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D226" s="6">
         <v>8712431</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
-        <v>6</v>
+      <c r="A227" s="8">
+        <v>44028</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D227" s="6">
         <v>8902450</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
-        <v>6</v>
+      <c r="A228" s="8">
+        <v>44028</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D228" s="6">
         <v>9535868</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="3" t="s">
-        <v>6</v>
+      <c r="A229" s="8">
+        <v>44028</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D229" s="6">
         <v>9919891</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
-        <v>6</v>
+    <row r="230" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A230" s="8">
+        <v>44028</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D230" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A231" s="8">
+        <v>44028</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="3" t="s">
-        <v>6</v>
+      <c r="A232" s="8">
+        <v>44028</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D232" s="6">
         <v>1118009</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
-        <v>6</v>
+      <c r="A233" s="8">
+        <v>44028</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D233" s="6">
         <v>1836611</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
-        <v>6</v>
+      <c r="A234" s="8">
+        <v>44028</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D234" s="6">
         <v>3252217</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
-        <v>6</v>
+      <c r="A235" s="8">
+        <v>44028</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D235" s="6">
         <v>3868689</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="3" t="s">
-        <v>6</v>
+      <c r="A236" s="8">
+        <v>44028</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D236" s="6">
         <v>4154646</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="3" t="s">
-        <v>6</v>
+      <c r="A237" s="8">
+        <v>44028</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D237" s="6">
         <v>4440291</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="s">
-        <v>6</v>
+      <c r="A238" s="8">
+        <v>44028</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D238" s="6">
         <v>5036985</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="3" t="s">
-        <v>6</v>
+      <c r="A239" s="8">
+        <v>44028</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D239" s="6">
         <v>5357041</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
-        <v>6</v>
+      <c r="A240" s="8">
+        <v>44028</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D240" s="6">
         <v>6246923</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="3" t="s">
-        <v>6</v>
+      <c r="A241" s="8">
+        <v>44028</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D241" s="6">
         <v>7079479</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
-        <v>6</v>
+      <c r="A242" s="8">
+        <v>44028</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D242" s="6">
         <v>7686575</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
-        <v>6</v>
+      <c r="A243" s="8">
+        <v>44028</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D243" s="6">
         <v>7852907</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
-        <v>6</v>
+      <c r="A244" s="8">
+        <v>44028</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D244" s="6">
         <v>8008858</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="s">
-        <v>6</v>
+      <c r="A245" s="8">
+        <v>44028</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D245" s="6">
         <v>8252958</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="3" t="s">
-        <v>6</v>
+      <c r="A246" s="8">
+        <v>44028</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D246" s="6">
         <v>8722506</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="3" t="s">
-        <v>6</v>
+      <c r="A247" s="8">
+        <v>44028</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D247" s="6">
         <v>9187822</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="3" t="s">
-        <v>6</v>
+      <c r="A248" s="8">
+        <v>44028</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D248" s="6">
         <v>9798509</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="3" t="s">
-        <v>6</v>
+      <c r="A249" s="8">
+        <v>44028</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D249" s="6">
         <v>9960101</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A250" s="3" t="s">
-        <v>6</v>
+    <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A250" s="8">
+        <v>44028</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A251" s="3" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A251" s="8">
+        <v>44028</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D251" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
-        <v>6</v>
+      <c r="A252" s="8">
+        <v>44028</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D252" s="6">
         <v>1289415</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="3" t="s">
-        <v>6</v>
+      <c r="A253" s="8">
+        <v>44028</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D253" s="6">
         <v>1862123</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="3" t="s">
-        <v>6</v>
+      <c r="A254" s="8">
+        <v>44028</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D254" s="6">
         <v>3281634</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="3" t="s">
-        <v>6</v>
+      <c r="A255" s="8">
+        <v>44028</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D255" s="6">
         <v>3920684</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="3" t="s">
-        <v>6</v>
+      <c r="A256" s="8">
+        <v>44028</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D256" s="6">
         <v>4324792</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="3" t="s">
-        <v>6</v>
+      <c r="A257" s="8">
+        <v>44028</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D257" s="6">
         <v>4459117</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="3" t="s">
-        <v>6</v>
+      <c r="A258" s="8">
+        <v>44028</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D258" s="6">
         <v>5103314</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="3" t="s">
-        <v>6</v>
+      <c r="A259" s="8">
+        <v>44028</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D259" s="6">
         <v>5419850</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="3" t="s">
-        <v>6</v>
+      <c r="A260" s="8">
+        <v>44028</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D260" s="6">
         <v>6279116</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="3" t="s">
-        <v>6</v>
+      <c r="A261" s="8">
+        <v>44028</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D261" s="6">
         <v>7140618</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="3" t="s">
-        <v>6</v>
+      <c r="A262" s="8">
+        <v>44028</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D262" s="6">
         <v>7691492</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="3" t="s">
-        <v>6</v>
+      <c r="A263" s="8">
+        <v>44028</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D263" s="6">
         <v>7884653</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="3" t="s">
-        <v>6</v>
+      <c r="A264" s="8">
+        <v>44028</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D264" s="6">
         <v>8033056</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="3" t="s">
-        <v>6</v>
+      <c r="A265" s="8">
+        <v>44028</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D265" s="6">
         <v>8498623</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="3" t="s">
-        <v>6</v>
+      <c r="A266" s="8">
+        <v>44028</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D266" s="6">
         <v>8731387</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="3" t="s">
-        <v>6</v>
+      <c r="A267" s="8">
+        <v>44028</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D267" s="6">
         <v>9313050</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="3" t="s">
-        <v>6</v>
+      <c r="A268" s="8">
+        <v>44028</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D268" s="6">
         <v>9856380</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="3" t="s">
-        <v>6</v>
+      <c r="A269" s="8">
+        <v>44028</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D269" s="6">
         <v>9986926</v>

--- a/data/reward.xlsx
+++ b/data/reward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/BAAC_DATA/@Working_Y63/Training/CodeCampUpSkillBatch1/Project/Group/final-americano-api/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA7EFC0-0C8C-AB40-B0EE-E64D7DDA8792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1CAE97-656F-5244-9549-48F96088170D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RewardData" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="42">
   <si>
     <t>1</t>
   </si>
@@ -138,6 +138,9 @@
     <t>5000</t>
   </si>
   <si>
+    <t>2020-07-16</t>
+  </si>
+  <si>
     <t>0234812</t>
   </si>
   <si>
@@ -176,12 +179,15 @@
   <si>
     <t>0515103</t>
   </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +216,13 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -291,9 +304,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -665,8 +675,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>44059</v>
+      <c r="A2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -682,8 +692,8 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>44059</v>
+      <c r="A3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="3">
         <v>2</v>
@@ -696,8 +706,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>44059</v>
+      <c r="A4" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -710,8 +720,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>44059</v>
+      <c r="A5" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -724,8 +734,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>44059</v>
+      <c r="A6" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="3">
         <v>3</v>
@@ -743,8 +753,8 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>44059</v>
+      <c r="A7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="3">
         <v>3</v>
@@ -764,8 +774,8 @@
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>44059</v>
+      <c r="A8" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
@@ -783,8 +793,8 @@
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>44059</v>
+      <c r="A9" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
@@ -802,8 +812,8 @@
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>44059</v>
+      <c r="A10" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="3">
         <v>3</v>
@@ -821,8 +831,8 @@
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>44059</v>
+      <c r="A11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B11" s="3">
         <v>3</v>
@@ -835,8 +845,8 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>44059</v>
+      <c r="A12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B12" s="3">
         <v>3</v>
@@ -849,8 +859,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>44059</v>
+      <c r="A13" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B13" s="3">
         <v>3</v>
@@ -863,8 +873,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>44059</v>
+      <c r="A14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
@@ -877,8 +887,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>44059</v>
+      <c r="A15" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -891,8 +901,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>44059</v>
+      <c r="A16" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>7</v>
@@ -905,8 +915,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>44059</v>
+      <c r="A17" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -919,8 +929,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>44059</v>
+      <c r="A18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -933,8 +943,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>44059</v>
+      <c r="A19" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>7</v>
@@ -947,8 +957,8 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>44059</v>
+      <c r="A20" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>7</v>
@@ -961,8 +971,8 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>44059</v>
+      <c r="A21" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
@@ -975,8 +985,8 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>44059</v>
+      <c r="A22" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>7</v>
@@ -989,8 +999,8 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>44059</v>
+      <c r="A23" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
@@ -1003,8 +1013,8 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>44059</v>
+      <c r="A24" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
@@ -1017,8 +1027,8 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>44059</v>
+      <c r="A25" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
@@ -1031,8 +1041,8 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>44059</v>
+      <c r="A26" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
@@ -1045,8 +1055,8 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>44059</v>
+      <c r="A27" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>7</v>
@@ -1059,8 +1069,8 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>44059</v>
+      <c r="A28" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
@@ -1073,8 +1083,8 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>44059</v>
+      <c r="A29" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>7</v>
@@ -1087,8 +1097,8 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>44059</v>
+      <c r="A30" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>7</v>
@@ -1101,8 +1111,8 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>44059</v>
+      <c r="A31" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>7</v>
@@ -1120,8 +1130,8 @@
       <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>44059</v>
+      <c r="A32" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>7</v>
@@ -1139,8 +1149,8 @@
       <c r="M32" s="7"/>
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>44059</v>
+      <c r="A33" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>7</v>
@@ -1158,8 +1168,8 @@
       <c r="M33" s="7"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>44059</v>
+      <c r="A34" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>7</v>
@@ -1177,8 +1187,8 @@
       <c r="M34" s="7"/>
     </row>
     <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>44059</v>
+      <c r="A35" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>7</v>
@@ -1196,8 +1206,8 @@
       <c r="M35" s="7"/>
     </row>
     <row r="36" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>44059</v>
+      <c r="A36" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
@@ -1215,8 +1225,8 @@
       <c r="M36" s="7"/>
     </row>
     <row r="37" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>44059</v>
+      <c r="A37" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>13</v>
@@ -1234,8 +1244,8 @@
       <c r="M37" s="7"/>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>44059</v>
+      <c r="A38" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>13</v>
@@ -1253,8 +1263,8 @@
       <c r="M38" s="7"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>44059</v>
+      <c r="A39" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>13</v>
@@ -1272,8 +1282,8 @@
       <c r="M39" s="7"/>
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>44059</v>
+      <c r="A40" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>13</v>
@@ -1291,8 +1301,8 @@
       <c r="M40" s="7"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>44059</v>
+      <c r="A41" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>13</v>
@@ -1310,8 +1320,8 @@
       <c r="M41" s="7"/>
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>44059</v>
+      <c r="A42" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>13</v>
@@ -1329,8 +1339,8 @@
       <c r="M42" s="7"/>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>44059</v>
+      <c r="A43" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>13</v>
@@ -1348,8 +1358,8 @@
       <c r="M43" s="7"/>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>44059</v>
+      <c r="A44" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>13</v>
@@ -1367,8 +1377,8 @@
       <c r="M44" s="7"/>
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>44059</v>
+      <c r="A45" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>13</v>
@@ -1386,8 +1396,8 @@
       <c r="M45" s="7"/>
     </row>
     <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>44059</v>
+      <c r="A46" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>13</v>
@@ -1405,8 +1415,8 @@
       <c r="M46" s="7"/>
     </row>
     <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>44059</v>
+      <c r="A47" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>13</v>
@@ -1424,8 +1434,8 @@
       <c r="M47" s="7"/>
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>44059</v>
+      <c r="A48" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>13</v>
@@ -1443,8 +1453,8 @@
       <c r="M48" s="7"/>
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <v>44059</v>
+      <c r="A49" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>13</v>
@@ -1462,8 +1472,8 @@
       <c r="M49" s="7"/>
     </row>
     <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>44059</v>
+      <c r="A50" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>13</v>
@@ -1481,8 +1491,8 @@
       <c r="M50" s="7"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
-        <v>44059</v>
+      <c r="A51" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>13</v>
@@ -1495,8 +1505,8 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
-        <v>44059</v>
+      <c r="A52" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>13</v>
@@ -1509,8 +1519,8 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
-        <v>44059</v>
+      <c r="A53" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>13</v>
@@ -1523,8 +1533,8 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
-        <v>44059</v>
+      <c r="A54" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>13</v>
@@ -1537,8 +1547,8 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
-        <v>44059</v>
+      <c r="A55" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>13</v>
@@ -1551,8 +1561,8 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
-        <v>44059</v>
+      <c r="A56" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>13</v>
@@ -1565,8 +1575,8 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
-        <v>44059</v>
+      <c r="A57" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>13</v>
@@ -1579,8 +1589,8 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
-        <v>44059</v>
+      <c r="A58" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>13</v>
@@ -1593,8 +1603,8 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
-        <v>44059</v>
+      <c r="A59" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>13</v>
@@ -1607,8 +1617,8 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
-        <v>44059</v>
+      <c r="A60" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>13</v>
@@ -1621,8 +1631,8 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
-        <v>44059</v>
+      <c r="A61" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>13</v>
@@ -1635,8 +1645,8 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
-        <v>44059</v>
+      <c r="A62" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>13</v>
@@ -1649,8 +1659,8 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
-        <v>44059</v>
+      <c r="A63" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>13</v>
@@ -1663,8 +1673,8 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
-        <v>44059</v>
+      <c r="A64" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>13</v>
@@ -1677,8 +1687,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
-        <v>44059</v>
+      <c r="A65" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>13</v>
@@ -1691,8 +1701,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
-        <v>44059</v>
+      <c r="A66" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>13</v>
@@ -1705,8 +1715,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
-        <v>44059</v>
+      <c r="A67" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>13</v>
@@ -1719,8 +1729,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
-        <v>44059</v>
+      <c r="A68" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>13</v>
@@ -1733,8 +1743,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
-        <v>44059</v>
+      <c r="A69" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>13</v>
@@ -1747,8 +1757,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
-        <v>44059</v>
+      <c r="A70" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>13</v>
@@ -1761,8 +1771,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
-        <v>44059</v>
+      <c r="A71" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>13</v>
@@ -1775,8 +1785,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
-        <v>44059</v>
+      <c r="A72" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>13</v>
@@ -1789,8 +1799,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
-        <v>44059</v>
+      <c r="A73" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>13</v>
@@ -1803,8 +1813,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
-        <v>44059</v>
+      <c r="A74" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>13</v>
@@ -1817,8 +1827,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
-        <v>44059</v>
+      <c r="A75" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>13</v>
@@ -1831,8 +1841,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
-        <v>44059</v>
+      <c r="A76" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>13</v>
@@ -1845,8 +1855,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
-        <v>44059</v>
+      <c r="A77" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>13</v>
@@ -1859,8 +1869,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
-        <v>44059</v>
+      <c r="A78" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>13</v>
@@ -1873,8 +1883,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
-        <v>44059</v>
+      <c r="A79" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>13</v>
@@ -1887,8 +1897,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
-        <v>44059</v>
+      <c r="A80" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>13</v>
@@ -1901,8 +1911,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
-        <v>44059</v>
+      <c r="A81" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>13</v>
@@ -1915,8 +1925,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
-        <v>44059</v>
+      <c r="A82" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>13</v>
@@ -1929,8 +1939,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
-        <v>44059</v>
+      <c r="A83" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>13</v>
@@ -1943,8 +1953,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
-        <v>44059</v>
+      <c r="A84" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>13</v>
@@ -1957,8 +1967,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
-        <v>44059</v>
+      <c r="A85" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>13</v>
@@ -1971,8 +1981,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
-        <v>44059</v>
+      <c r="A86" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>13</v>
@@ -1985,8 +1995,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
-        <v>44059</v>
+      <c r="A87" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>13</v>
@@ -1999,8 +2009,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
-        <v>44059</v>
+      <c r="A88" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>13</v>
@@ -2013,8 +2023,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
-        <v>44059</v>
+      <c r="A89" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>13</v>
@@ -2027,8 +2037,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
-        <v>44059</v>
+      <c r="A90" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>13</v>
@@ -2041,8 +2051,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
-        <v>44059</v>
+      <c r="A91" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>13</v>
@@ -2055,8 +2065,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
-        <v>44059</v>
+      <c r="A92" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>13</v>
@@ -2069,8 +2079,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
-        <v>44059</v>
+      <c r="A93" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>13</v>
@@ -2083,8 +2093,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
-        <v>44059</v>
+      <c r="A94" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>13</v>
@@ -2097,8 +2107,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="8">
-        <v>44059</v>
+      <c r="A95" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>13</v>
@@ -2111,8 +2121,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
-        <v>44059</v>
+      <c r="A96" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>13</v>
@@ -2125,8 +2135,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
-        <v>44059</v>
+      <c r="A97" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>13</v>
@@ -2139,8 +2149,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
-        <v>44059</v>
+      <c r="A98" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>13</v>
@@ -2153,8 +2163,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
-        <v>44059</v>
+      <c r="A99" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>13</v>
@@ -2167,8 +2177,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
-        <v>44059</v>
+      <c r="A100" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>13</v>
@@ -2181,8 +2191,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
-        <v>44059</v>
+      <c r="A101" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>13</v>
@@ -2195,8 +2205,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
-        <v>44059</v>
+      <c r="A102" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>13</v>
@@ -2209,8 +2219,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
-        <v>44059</v>
+      <c r="A103" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>13</v>
@@ -2223,8 +2233,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
-        <v>44059</v>
+      <c r="A104" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>13</v>
@@ -2237,8 +2247,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="8">
-        <v>44059</v>
+      <c r="A105" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>13</v>
@@ -2251,8 +2261,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
-        <v>44059</v>
+      <c r="A106" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>13</v>
@@ -2265,8 +2275,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
-        <v>44059</v>
+      <c r="A107" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>13</v>
@@ -2279,8 +2289,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
-        <v>44059</v>
+      <c r="A108" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>13</v>
@@ -2293,8 +2303,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
-        <v>44059</v>
+      <c r="A109" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>13</v>
@@ -2307,8 +2317,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
-        <v>44059</v>
+      <c r="A110" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>13</v>
@@ -2321,8 +2331,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="8">
-        <v>44059</v>
+      <c r="A111" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>13</v>
@@ -2335,8 +2345,8 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="8">
-        <v>44059</v>
+      <c r="A112" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>13</v>
@@ -2349,8 +2359,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
-        <v>44059</v>
+      <c r="A113" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>13</v>
@@ -2363,8 +2373,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
-        <v>44059</v>
+      <c r="A114" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>13</v>
@@ -2377,8 +2387,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="8">
-        <v>44059</v>
+      <c r="A115" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>13</v>
@@ -2391,8 +2401,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="8">
-        <v>44059</v>
+      <c r="A116" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>13</v>
@@ -2405,8 +2415,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="8">
-        <v>44059</v>
+      <c r="A117" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>13</v>
@@ -2419,8 +2429,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
-        <v>44059</v>
+      <c r="A118" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>13</v>
@@ -2433,8 +2443,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="8">
-        <v>44059</v>
+      <c r="A119" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>13</v>
@@ -2447,8 +2457,8 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="8">
-        <v>44059</v>
+      <c r="A120" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>13</v>
@@ -2461,8 +2471,8 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="8">
-        <v>44059</v>
+      <c r="A121" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>13</v>
@@ -2475,8 +2485,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="8">
-        <v>44059</v>
+      <c r="A122" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>13</v>
@@ -2489,8 +2499,8 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="8">
-        <v>44059</v>
+      <c r="A123" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>13</v>
@@ -2503,8 +2513,8 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="8">
-        <v>44059</v>
+      <c r="A124" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>13</v>
@@ -2517,8 +2527,8 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="8">
-        <v>44059</v>
+      <c r="A125" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>13</v>
@@ -2531,8 +2541,8 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="8">
-        <v>44059</v>
+      <c r="A126" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>13</v>
@@ -2545,8 +2555,8 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="8">
-        <v>44059</v>
+      <c r="A127" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>13</v>
@@ -2559,8 +2569,8 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="8">
-        <v>44059</v>
+      <c r="A128" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>13</v>
@@ -2573,8 +2583,8 @@
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A129" s="8">
-        <v>44059</v>
+      <c r="A129" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>13</v>
@@ -2587,8 +2597,8 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A130" s="8">
-        <v>44059</v>
+      <c r="A130" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>13</v>
@@ -2601,8 +2611,8 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="8">
-        <v>44059</v>
+      <c r="A131" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>13</v>
@@ -2615,8 +2625,8 @@
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A132" s="8">
-        <v>44059</v>
+      <c r="A132" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>13</v>
@@ -2629,8 +2639,8 @@
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" s="8">
-        <v>44059</v>
+      <c r="A133" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>13</v>
@@ -2643,8 +2653,8 @@
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="8">
-        <v>44059</v>
+      <c r="A134" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>13</v>
@@ -2657,8 +2667,8 @@
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A135" s="8">
-        <v>44059</v>
+      <c r="A135" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>13</v>
@@ -2671,8 +2681,8 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A136" s="8">
-        <v>44028</v>
+      <c r="A136" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>0</v>
@@ -2685,8 +2695,8 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="8">
-        <v>44028</v>
+      <c r="A137" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>6</v>
@@ -2699,8 +2709,8 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" s="8">
-        <v>44028</v>
+      <c r="A138" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>6</v>
@@ -2713,8 +2723,8 @@
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A139" s="8">
-        <v>44028</v>
+      <c r="A139" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>6</v>
@@ -2727,8 +2737,8 @@
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A140" s="8">
-        <v>44028</v>
+      <c r="A140" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>1</v>
@@ -2741,8 +2751,8 @@
       </c>
     </row>
     <row r="141" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8">
-        <v>44028</v>
+      <c r="A141" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>1</v>
@@ -2755,8 +2765,8 @@
       </c>
     </row>
     <row r="142" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8">
-        <v>44028</v>
+      <c r="A142" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>1</v>
@@ -2774,8 +2784,8 @@
       <c r="L142" s="7"/>
     </row>
     <row r="143" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="8">
-        <v>44028</v>
+      <c r="A143" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>1</v>
@@ -2793,8 +2803,8 @@
       <c r="L143" s="7"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A144" s="8">
-        <v>44028</v>
+      <c r="A144" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>1</v>
@@ -2807,8 +2817,8 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" s="8">
-        <v>44028</v>
+      <c r="A145" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>1</v>
@@ -2821,8 +2831,8 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" s="8">
-        <v>44028</v>
+      <c r="A146" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>1</v>
@@ -2835,8 +2845,8 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" s="8">
-        <v>44028</v>
+      <c r="A147" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>1</v>
@@ -2849,8 +2859,8 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A148" s="8">
-        <v>44028</v>
+      <c r="A148" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>1</v>
@@ -2863,8 +2873,8 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" s="8">
-        <v>44028</v>
+      <c r="A149" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>1</v>
@@ -2877,8 +2887,8 @@
       </c>
     </row>
     <row r="150" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="8">
-        <v>44028</v>
+      <c r="A150" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>7</v>
@@ -2887,12 +2897,12 @@
         <v>25</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="8">
-        <v>44028</v>
+      <c r="A151" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>7</v>
@@ -2910,8 +2920,8 @@
       <c r="K151" s="7"/>
     </row>
     <row r="152" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8">
-        <v>44028</v>
+      <c r="A152" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>7</v>
@@ -2929,8 +2939,8 @@
       <c r="K152" s="7"/>
     </row>
     <row r="153" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8">
-        <v>44028</v>
+      <c r="A153" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>7</v>
@@ -2948,8 +2958,8 @@
       <c r="K153" s="7"/>
     </row>
     <row r="154" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="8">
-        <v>44028</v>
+      <c r="A154" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>7</v>
@@ -2958,7 +2968,7 @@
         <v>25</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
@@ -2967,8 +2977,8 @@
       <c r="K154" s="7"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155" s="8">
-        <v>44028</v>
+      <c r="A155" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>7</v>
@@ -2981,8 +2991,8 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" s="8">
-        <v>44028</v>
+      <c r="A156" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>7</v>
@@ -2995,8 +3005,8 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" s="8">
-        <v>44028</v>
+      <c r="A157" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>7</v>
@@ -3009,8 +3019,8 @@
       </c>
     </row>
     <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="8">
-        <v>44028</v>
+      <c r="A158" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>7</v>
@@ -3019,12 +3029,12 @@
         <v>25</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" s="8">
-        <v>44028</v>
+      <c r="A159" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>7</v>
@@ -3037,8 +3047,8 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" s="8">
-        <v>44028</v>
+      <c r="A160" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>7</v>
@@ -3051,8 +3061,8 @@
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A161" s="8">
-        <v>44028</v>
+      <c r="A161" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>7</v>
@@ -3065,8 +3075,8 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="8">
-        <v>44028</v>
+      <c r="A162" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>7</v>
@@ -3079,8 +3089,8 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="8">
-        <v>44028</v>
+      <c r="A163" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>7</v>
@@ -3098,8 +3108,8 @@
       <c r="L163" s="7"/>
     </row>
     <row r="164" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="8">
-        <v>44028</v>
+      <c r="A164" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>7</v>
@@ -3117,8 +3127,8 @@
       <c r="L164" s="7"/>
     </row>
     <row r="165" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="8">
-        <v>44028</v>
+      <c r="A165" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>7</v>
@@ -3136,8 +3146,8 @@
       <c r="L165" s="7"/>
     </row>
     <row r="166" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="8">
-        <v>44028</v>
+      <c r="A166" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>7</v>
@@ -3155,8 +3165,8 @@
       <c r="L166" s="7"/>
     </row>
     <row r="167" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="8">
-        <v>44028</v>
+      <c r="A167" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>7</v>
@@ -3174,8 +3184,8 @@
       <c r="L167" s="7"/>
     </row>
     <row r="168" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="8">
-        <v>44028</v>
+      <c r="A168" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>7</v>
@@ -3193,8 +3203,8 @@
       <c r="L168" s="7"/>
     </row>
     <row r="169" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="8">
-        <v>44028</v>
+      <c r="A169" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>7</v>
@@ -3212,8 +3222,8 @@
       <c r="L169" s="7"/>
     </row>
     <row r="170" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="8">
-        <v>44028</v>
+      <c r="A170" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>13</v>
@@ -3222,7 +3232,7 @@
         <v>26</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
@@ -3231,8 +3241,8 @@
       <c r="L170" s="7"/>
     </row>
     <row r="171" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="8">
-        <v>44028</v>
+      <c r="A171" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>13</v>
@@ -3241,7 +3251,7 @@
         <v>26</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
@@ -3250,8 +3260,8 @@
       <c r="L171" s="7"/>
     </row>
     <row r="172" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="8">
-        <v>44028</v>
+      <c r="A172" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>13</v>
@@ -3269,8 +3279,8 @@
       <c r="L172" s="7"/>
     </row>
     <row r="173" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="8">
-        <v>44028</v>
+      <c r="A173" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>13</v>
@@ -3288,8 +3298,8 @@
       <c r="L173" s="7"/>
     </row>
     <row r="174" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="8">
-        <v>44028</v>
+      <c r="A174" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>13</v>
@@ -3307,8 +3317,8 @@
       <c r="L174" s="7"/>
     </row>
     <row r="175" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="8">
-        <v>44028</v>
+      <c r="A175" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>13</v>
@@ -3326,8 +3336,8 @@
       <c r="L175" s="7"/>
     </row>
     <row r="176" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="8">
-        <v>44028</v>
+      <c r="A176" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>13</v>
@@ -3345,8 +3355,8 @@
       <c r="L176" s="7"/>
     </row>
     <row r="177" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="8">
-        <v>44028</v>
+      <c r="A177" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>13</v>
@@ -3364,8 +3374,8 @@
       <c r="L177" s="7"/>
     </row>
     <row r="178" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="8">
-        <v>44028</v>
+      <c r="A178" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>13</v>
@@ -3383,8 +3393,8 @@
       <c r="L178" s="7"/>
     </row>
     <row r="179" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="8">
-        <v>44028</v>
+      <c r="A179" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>13</v>
@@ -3402,8 +3412,8 @@
       <c r="L179" s="7"/>
     </row>
     <row r="180" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="8">
-        <v>44028</v>
+      <c r="A180" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>13</v>
@@ -3421,8 +3431,8 @@
       <c r="L180" s="7"/>
     </row>
     <row r="181" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="8">
-        <v>44028</v>
+      <c r="A181" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>13</v>
@@ -3440,8 +3450,8 @@
       <c r="L181" s="7"/>
     </row>
     <row r="182" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="8">
-        <v>44028</v>
+      <c r="A182" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>13</v>
@@ -3459,8 +3469,8 @@
       <c r="L182" s="7"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A183" s="8">
-        <v>44028</v>
+      <c r="A183" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>13</v>
@@ -3473,8 +3483,8 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A184" s="8">
-        <v>44028</v>
+      <c r="A184" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>13</v>
@@ -3487,8 +3497,8 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A185" s="8">
-        <v>44028</v>
+      <c r="A185" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>13</v>
@@ -3501,8 +3511,8 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A186" s="8">
-        <v>44028</v>
+      <c r="A186" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>13</v>
@@ -3515,8 +3525,8 @@
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A187" s="8">
-        <v>44028</v>
+      <c r="A187" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>13</v>
@@ -3529,8 +3539,8 @@
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A188" s="8">
-        <v>44028</v>
+      <c r="A188" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>13</v>
@@ -3543,8 +3553,8 @@
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A189" s="8">
-        <v>44028</v>
+      <c r="A189" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>13</v>
@@ -3557,8 +3567,8 @@
       </c>
     </row>
     <row r="190" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" s="8">
-        <v>44028</v>
+      <c r="A190" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>13</v>
@@ -3567,12 +3577,12 @@
         <v>26</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="8">
-        <v>44028</v>
+      <c r="A191" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>13</v>
@@ -3581,12 +3591,12 @@
         <v>26</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A192" s="8">
-        <v>44028</v>
+      <c r="A192" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>13</v>
@@ -3599,8 +3609,8 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="8">
-        <v>44028</v>
+      <c r="A193" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>13</v>
@@ -3613,8 +3623,8 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="8">
-        <v>44028</v>
+      <c r="A194" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>13</v>
@@ -3627,8 +3637,8 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="8">
-        <v>44028</v>
+      <c r="A195" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>13</v>
@@ -3641,8 +3651,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="8">
-        <v>44028</v>
+      <c r="A196" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>13</v>
@@ -3655,8 +3665,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="8">
-        <v>44028</v>
+      <c r="A197" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>13</v>
@@ -3669,8 +3679,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="8">
-        <v>44028</v>
+      <c r="A198" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>13</v>
@@ -3683,8 +3693,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="8">
-        <v>44028</v>
+      <c r="A199" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>13</v>
@@ -3697,8 +3707,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A200" s="8">
-        <v>44028</v>
+      <c r="A200" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>13</v>
@@ -3711,8 +3721,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A201" s="8">
-        <v>44028</v>
+      <c r="A201" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>13</v>
@@ -3725,8 +3735,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A202" s="8">
-        <v>44028</v>
+      <c r="A202" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>13</v>
@@ -3739,8 +3749,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="8">
-        <v>44028</v>
+      <c r="A203" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>13</v>
@@ -3753,8 +3763,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="8">
-        <v>44028</v>
+      <c r="A204" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>13</v>
@@ -3767,8 +3777,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="8">
-        <v>44028</v>
+      <c r="A205" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>13</v>
@@ -3781,8 +3791,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="8">
-        <v>44028</v>
+      <c r="A206" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>13</v>
@@ -3795,8 +3805,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A207" s="8">
-        <v>44028</v>
+      <c r="A207" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>13</v>
@@ -3809,8 +3819,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A208" s="8">
-        <v>44028</v>
+      <c r="A208" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>13</v>
@@ -3823,8 +3833,8 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A209" s="8">
-        <v>44028</v>
+      <c r="A209" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>13</v>
@@ -3837,8 +3847,8 @@
       </c>
     </row>
     <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A210" s="8">
-        <v>44028</v>
+      <c r="A210" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>13</v>
@@ -3847,12 +3857,12 @@
         <v>26</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A211" s="8">
-        <v>44028</v>
+      <c r="A211" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>13</v>
@@ -3861,12 +3871,12 @@
         <v>26</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A212" s="8">
-        <v>44028</v>
+      <c r="A212" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>13</v>
@@ -3879,8 +3889,8 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A213" s="8">
-        <v>44028</v>
+      <c r="A213" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>13</v>
@@ -3893,8 +3903,8 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A214" s="8">
-        <v>44028</v>
+      <c r="A214" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>13</v>
@@ -3907,8 +3917,8 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A215" s="8">
-        <v>44028</v>
+      <c r="A215" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>13</v>
@@ -3921,8 +3931,8 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A216" s="8">
-        <v>44028</v>
+      <c r="A216" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>13</v>
@@ -3935,8 +3945,8 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A217" s="8">
-        <v>44028</v>
+      <c r="A217" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>13</v>
@@ -3949,8 +3959,8 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A218" s="8">
-        <v>44028</v>
+      <c r="A218" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>13</v>
@@ -3963,8 +3973,8 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A219" s="8">
-        <v>44028</v>
+      <c r="A219" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>13</v>
@@ -3977,8 +3987,8 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A220" s="8">
-        <v>44028</v>
+      <c r="A220" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>13</v>
@@ -3991,8 +4001,8 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A221" s="8">
-        <v>44028</v>
+      <c r="A221" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>13</v>
@@ -4005,8 +4015,8 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A222" s="8">
-        <v>44028</v>
+      <c r="A222" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>13</v>
@@ -4019,8 +4029,8 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="8">
-        <v>44028</v>
+      <c r="A223" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>13</v>
@@ -4033,8 +4043,8 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="8">
-        <v>44028</v>
+      <c r="A224" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>13</v>
@@ -4047,8 +4057,8 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="8">
-        <v>44028</v>
+      <c r="A225" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>13</v>
@@ -4061,8 +4071,8 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="8">
-        <v>44028</v>
+      <c r="A226" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>13</v>
@@ -4075,8 +4085,8 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="8">
-        <v>44028</v>
+      <c r="A227" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>13</v>
@@ -4089,8 +4099,8 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="8">
-        <v>44028</v>
+      <c r="A228" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>13</v>
@@ -4103,8 +4113,8 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="8">
-        <v>44028</v>
+      <c r="A229" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>13</v>
@@ -4117,8 +4127,8 @@
       </c>
     </row>
     <row r="230" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A230" s="8">
-        <v>44028</v>
+      <c r="A230" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>13</v>
@@ -4127,26 +4137,26 @@
         <v>26</v>
       </c>
       <c r="D230" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A231" s="8">
-        <v>44028</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="8">
-        <v>44028</v>
+      <c r="A232" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>13</v>
@@ -4159,8 +4169,8 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="8">
-        <v>44028</v>
+      <c r="A233" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>13</v>
@@ -4173,8 +4183,8 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="8">
-        <v>44028</v>
+      <c r="A234" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>13</v>
@@ -4187,8 +4197,8 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="8">
-        <v>44028</v>
+      <c r="A235" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>13</v>
@@ -4201,8 +4211,8 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="8">
-        <v>44028</v>
+      <c r="A236" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>13</v>
@@ -4215,8 +4225,8 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="8">
-        <v>44028</v>
+      <c r="A237" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>13</v>
@@ -4229,8 +4239,8 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="8">
-        <v>44028</v>
+      <c r="A238" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>13</v>
@@ -4243,8 +4253,8 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="8">
-        <v>44028</v>
+      <c r="A239" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>13</v>
@@ -4257,8 +4267,8 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="8">
-        <v>44028</v>
+      <c r="A240" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>13</v>
@@ -4271,8 +4281,8 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="8">
-        <v>44028</v>
+      <c r="A241" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>13</v>
@@ -4285,8 +4295,8 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A242" s="8">
-        <v>44028</v>
+      <c r="A242" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>13</v>
@@ -4299,8 +4309,8 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A243" s="8">
-        <v>44028</v>
+      <c r="A243" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>13</v>
@@ -4313,8 +4323,8 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A244" s="8">
-        <v>44028</v>
+      <c r="A244" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>13</v>
@@ -4327,8 +4337,8 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A245" s="8">
-        <v>44028</v>
+      <c r="A245" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>13</v>
@@ -4341,8 +4351,8 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="8">
-        <v>44028</v>
+      <c r="A246" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>13</v>
@@ -4355,8 +4365,8 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="8">
-        <v>44028</v>
+      <c r="A247" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>13</v>
@@ -4369,8 +4379,8 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="8">
-        <v>44028</v>
+      <c r="A248" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>13</v>
@@ -4383,8 +4393,8 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A249" s="8">
-        <v>44028</v>
+      <c r="A249" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>13</v>
@@ -4397,8 +4407,8 @@
       </c>
     </row>
     <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A250" s="8">
-        <v>44028</v>
+      <c r="A250" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>13</v>
@@ -4407,26 +4417,26 @@
         <v>26</v>
       </c>
       <c r="D250" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A251" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D251" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A251" s="8">
-        <v>44028</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A252" s="8">
-        <v>44028</v>
+      <c r="A252" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>13</v>
@@ -4439,8 +4449,8 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A253" s="8">
-        <v>44028</v>
+      <c r="A253" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>13</v>
@@ -4453,8 +4463,8 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A254" s="8">
-        <v>44028</v>
+      <c r="A254" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>13</v>
@@ -4467,8 +4477,8 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A255" s="8">
-        <v>44028</v>
+      <c r="A255" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>13</v>
@@ -4481,8 +4491,8 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="8">
-        <v>44028</v>
+      <c r="A256" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>13</v>
@@ -4495,8 +4505,8 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A257" s="8">
-        <v>44028</v>
+      <c r="A257" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>13</v>
@@ -4509,8 +4519,8 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A258" s="8">
-        <v>44028</v>
+      <c r="A258" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>13</v>
@@ -4523,8 +4533,8 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A259" s="8">
-        <v>44028</v>
+      <c r="A259" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>13</v>
@@ -4537,8 +4547,8 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A260" s="8">
-        <v>44028</v>
+      <c r="A260" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>13</v>
@@ -4551,8 +4561,8 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A261" s="8">
-        <v>44028</v>
+      <c r="A261" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>13</v>
@@ -4565,8 +4575,8 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262" s="8">
-        <v>44028</v>
+      <c r="A262" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>13</v>
@@ -4579,8 +4589,8 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263" s="8">
-        <v>44028</v>
+      <c r="A263" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>13</v>
@@ -4593,8 +4603,8 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A264" s="8">
-        <v>44028</v>
+      <c r="A264" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>13</v>
@@ -4607,8 +4617,8 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" s="8">
-        <v>44028</v>
+      <c r="A265" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>13</v>
@@ -4621,8 +4631,8 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A266" s="8">
-        <v>44028</v>
+      <c r="A266" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>13</v>
@@ -4635,8 +4645,8 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="8">
-        <v>44028</v>
+      <c r="A267" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>13</v>
@@ -4649,8 +4659,8 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="8">
-        <v>44028</v>
+      <c r="A268" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>13</v>
@@ -4663,8 +4673,8 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A269" s="8">
-        <v>44028</v>
+      <c r="A269" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>13</v>
@@ -4677,6 +4687,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
